--- a/Data/rice_prediction.xlsx
+++ b/Data/rice_prediction.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">State.UT</t>
   </si>
   <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -35,124 +38,220 @@
     <t xml:space="preserve">2026</t>
   </si>
   <si>
-    <t xml:space="preserve">2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2030</t>
-  </si>
-  <si>
     <t xml:space="preserve">A&amp;N ISLANDS</t>
   </si>
   <si>
+    <t xml:space="preserve">152.52</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANDHRA PR</t>
   </si>
   <si>
+    <t xml:space="preserve">1988.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARUNACHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">524.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSAM</t>
   </si>
   <si>
+    <t xml:space="preserve">1359.09</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIHAR</t>
   </si>
   <si>
+    <t xml:space="preserve">3604.19</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHANDIGARH</t>
   </si>
   <si>
+    <t xml:space="preserve">-659.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHHATTISGARH</t>
   </si>
   <si>
+    <t xml:space="preserve">1248.49</t>
+  </si>
+  <si>
     <t xml:space="preserve">D&amp;N HAVELI</t>
   </si>
   <si>
+    <t xml:space="preserve">212.28</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAMAN &amp; DIU</t>
   </si>
   <si>
+    <t xml:space="preserve">-164.74</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELHI</t>
   </si>
   <si>
+    <t xml:space="preserve">41.81</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOA</t>
   </si>
   <si>
+    <t xml:space="preserve">90.47</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUJARAT</t>
   </si>
   <si>
+    <t xml:space="preserve">1562.61</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARYANA</t>
   </si>
   <si>
+    <t xml:space="preserve">58.83</t>
+  </si>
+  <si>
     <t xml:space="preserve">HIMACHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">-6.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">J &amp; K</t>
   </si>
   <si>
+    <t xml:space="preserve">476.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">JHARKHAND</t>
   </si>
   <si>
+    <t xml:space="preserve">1422.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">KARNATAKA</t>
   </si>
   <si>
+    <t xml:space="preserve">2253.28</t>
+  </si>
+  <si>
     <t xml:space="preserve">KERALA</t>
   </si>
   <si>
+    <t xml:space="preserve">1271.19</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAKSHADWEEP</t>
   </si>
   <si>
+    <t xml:space="preserve">51.86</t>
+  </si>
+  <si>
     <t xml:space="preserve">MADHYA PR</t>
   </si>
   <si>
+    <t xml:space="preserve">1915.09</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAHARASHTRA</t>
   </si>
   <si>
+    <t xml:space="preserve">3393.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANIPUR</t>
   </si>
   <si>
+    <t xml:space="preserve">529.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEGHALAYA</t>
   </si>
   <si>
+    <t xml:space="preserve">532</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIZORAM</t>
   </si>
   <si>
+    <t xml:space="preserve">525.68</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAGALAND</t>
   </si>
   <si>
+    <t xml:space="preserve">309.86</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORISSA</t>
   </si>
   <si>
+    <t xml:space="preserve">1598.61</t>
+  </si>
+  <si>
     <t xml:space="preserve">PONDICHERRY</t>
   </si>
   <si>
+    <t xml:space="preserve">295.62</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUNJAB</t>
   </si>
   <si>
+    <t xml:space="preserve">61.88</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAJASTHAN</t>
   </si>
   <si>
+    <t xml:space="preserve">1464.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIKKIM</t>
   </si>
   <si>
+    <t xml:space="preserve">410.56</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAMILNADU</t>
   </si>
   <si>
+    <t xml:space="preserve">2523.49</t>
+  </si>
+  <si>
     <t xml:space="preserve">TELANGANA</t>
   </si>
   <si>
+    <t xml:space="preserve">1615.58</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIPURA</t>
   </si>
   <si>
+    <t xml:space="preserve">585.15</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTTAR PR</t>
   </si>
   <si>
+    <t xml:space="preserve">6978.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTTRANCHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">179.44</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST BENGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2540.95</t>
   </si>
   <si>
     <t xml:space="preserve">All India</t>
@@ -512,119 +611,83 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
+        <v>152.329570525237</v>
+      </c>
+      <c r="C2" t="n">
         <v>152.36</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>152.41</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>152.44</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>152.47</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>152.49</v>
       </c>
-      <c r="G2" t="n">
-        <v>152.52</v>
-      </c>
-      <c r="H2" t="n">
-        <v>152.55</v>
-      </c>
-      <c r="I2" t="n">
-        <v>152.57</v>
-      </c>
-      <c r="J2" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>152.63</v>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
+        <v>1955.38199646774</v>
+      </c>
+      <c r="C3" t="n">
         <v>1963.07</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1968.09</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1973.09</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1978.09</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1983.09</v>
       </c>
-      <c r="G3" t="n">
-        <v>1988.11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1990.64</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1993.16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1995.72</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1998.24</v>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>521.810075653676</v>
+      </c>
+      <c r="C4" t="n">
+        <v>522.19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>522.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>522.98</v>
+      </c>
+      <c r="F4" t="n">
+        <v>523.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>523.74</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>522.19</v>
-      </c>
-      <c r="C4" t="n">
-        <v>522.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>522.98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>523.36</v>
-      </c>
-      <c r="F4" t="n">
-        <v>523.74</v>
-      </c>
-      <c r="G4" t="n">
-        <v>524.12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>524.47</v>
-      </c>
-      <c r="I4" t="n">
-        <v>524.82</v>
-      </c>
-      <c r="J4" t="n">
-        <v>525.18</v>
-      </c>
-      <c r="K4" t="n">
-        <v>525.53</v>
       </c>
     </row>
     <row r="5">
@@ -632,538 +695,403 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>1303.43833092368</v>
+      </c>
+      <c r="C5" t="n">
         <v>1313.62</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1322.72</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1331.82</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1340.89</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1349.99</v>
       </c>
-      <c r="G5" t="n">
-        <v>1359.09</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1367.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1375.14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1383.18</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1391.22</v>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
+        <v>3306.4339402929</v>
+      </c>
+      <c r="C6" t="n">
         <v>3354.81</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3404.67</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>3454.57</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3504.43</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3554.33</v>
       </c>
-      <c r="G6" t="n">
-        <v>3604.19</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3651.86</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3699.53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3747.22</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3794.89</v>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
+        <v>-661.060025767616</v>
+      </c>
+      <c r="C7" t="n">
         <v>-660.65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-660.35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-660.03</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-659.7</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-659.38</v>
       </c>
-      <c r="G7" t="n">
-        <v>-659.05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-658.78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-658.51</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-658.21</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-657.94</v>
+      <c r="H7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
+        <v>1191.40031444598</v>
+      </c>
+      <c r="C8" t="n">
         <v>1201.83</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1211.15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1220.49</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1229.83</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1239.15</v>
       </c>
-      <c r="G8" t="n">
-        <v>1248.49</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1256.67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1264.87</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1273.07</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1281.25</v>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
+        <v>205.248932144385</v>
+      </c>
+      <c r="C9" t="n">
         <v>206.09</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>207.34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>208.56</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>209.81</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>211.03</v>
       </c>
-      <c r="G9" t="n">
-        <v>212.28</v>
-      </c>
-      <c r="H9" t="n">
-        <v>214.13</v>
-      </c>
-      <c r="I9" t="n">
-        <v>216</v>
-      </c>
-      <c r="J9" t="n">
-        <v>217.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>219.7</v>
+      <c r="H9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
+        <v>-171.908926258955</v>
+      </c>
+      <c r="C10" t="n">
         <v>-171.15</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-169.87</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-168.57</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-167.29</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-166.02</v>
       </c>
-      <c r="G10" t="n">
-        <v>-164.74</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-162.38</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-160.04</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-157.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-155.34</v>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
+        <v>-21.9362633837806</v>
+      </c>
+      <c r="C11" t="n">
         <v>-11.67</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-0.97</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>9.73</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>20.41</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>31.11</v>
       </c>
-      <c r="G11" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="H11" t="n">
-        <v>52.73</v>
-      </c>
-      <c r="I11" t="n">
-        <v>63.67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>74.59</v>
-      </c>
-      <c r="K11" t="n">
-        <v>85.54</v>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
+        <v>89.116108302564</v>
+      </c>
+      <c r="C12" t="n">
         <v>89.39</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>89.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>89.82</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>90.04</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>90.26</v>
       </c>
-      <c r="G12" t="n">
-        <v>90.47</v>
-      </c>
-      <c r="H12" t="n">
-        <v>90.66</v>
-      </c>
-      <c r="I12" t="n">
-        <v>90.85</v>
-      </c>
-      <c r="J12" t="n">
-        <v>91.04</v>
-      </c>
-      <c r="K12" t="n">
-        <v>91.21</v>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
+        <v>1420.71967175163</v>
+      </c>
+      <c r="C13" t="n">
         <v>1445.87</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1469.23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1492.56</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1515.92</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1539.28</v>
       </c>
-      <c r="G13" t="n">
-        <v>1562.61</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1583.49</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1604.38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1625.27</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1646.15</v>
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
+        <v>-1.52525373070652</v>
+      </c>
+      <c r="C14" t="n">
         <v>9.5</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>19.36</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>29.22</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>39.11</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>48.97</v>
       </c>
-      <c r="G14" t="n">
-        <v>58.83</v>
-      </c>
-      <c r="H14" t="n">
-        <v>67.79</v>
-      </c>
-      <c r="I14" t="n">
-        <v>76.72</v>
-      </c>
-      <c r="J14" t="n">
-        <v>85.66</v>
-      </c>
-      <c r="K14" t="n">
-        <v>94.6</v>
+      <c r="H14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
+        <v>-13.2546399561418</v>
+      </c>
+      <c r="C15" t="n">
         <v>-11.98</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-10.97</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-9.97</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-8.96</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-7.96</v>
       </c>
-      <c r="G15" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-6.22</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-4.78</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-4.07</v>
+      <c r="H15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
+        <v>459.979503300838</v>
+      </c>
+      <c r="C16" t="n">
         <v>462.83</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>465.52</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>468.21</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>470.93</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>473.61</v>
       </c>
-      <c r="G16" t="n">
-        <v>476.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>478.86</v>
-      </c>
-      <c r="I16" t="n">
-        <v>481.44</v>
-      </c>
-      <c r="J16" t="n">
-        <v>483.99</v>
-      </c>
-      <c r="K16" t="n">
-        <v>486.54</v>
+      <c r="H16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
+        <v>1339.99648475168</v>
+      </c>
+      <c r="C17" t="n">
         <v>1354.5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>1368.03</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1381.52</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1395.02</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1408.55</v>
       </c>
-      <c r="G17" t="n">
-        <v>1422.05</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1434.27</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1446.49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1458.74</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1470.96</v>
+      <c r="H17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
+        <v>2181.57708193871</v>
+      </c>
+      <c r="C18" t="n">
         <v>2195.78</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>2207.27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>2218.79</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2230.28</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2241.76</v>
       </c>
-      <c r="G18" t="n">
-        <v>2253.28</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2262.46</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2271.64</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2280.82</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2290</v>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
+        <v>1246.74210496065</v>
+      </c>
+      <c r="C19" t="n">
         <v>1251.69</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1255.6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1259.48</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1263.39</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1267.28</v>
       </c>
-      <c r="G19" t="n">
-        <v>1271.19</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1273.82</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1276.48</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1279.12</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1281.78</v>
+      <c r="H19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B20" t="n">
-        <v>51.8</v>
+        <v>51.8014018707194</v>
       </c>
       <c r="C20" t="n">
         <v>51.8</v>
       </c>
       <c r="D20" t="n">
-        <v>51.83</v>
+        <v>51.8</v>
       </c>
       <c r="E20" t="n">
         <v>51.83</v>
@@ -1172,619 +1100,457 @@
         <v>51.83</v>
       </c>
       <c r="G20" t="n">
-        <v>51.86</v>
-      </c>
-      <c r="H20" t="n">
-        <v>51.86</v>
-      </c>
-      <c r="I20" t="n">
-        <v>51.86</v>
-      </c>
-      <c r="J20" t="n">
-        <v>51.86</v>
-      </c>
-      <c r="K20" t="n">
-        <v>51.86</v>
+        <v>51.83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
+        <v>1744.00335221533</v>
+      </c>
+      <c r="C21" t="n">
         <v>1775.02</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1803.05</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>1831.05</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1859.06</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1887.06</v>
       </c>
-      <c r="G21" t="n">
-        <v>1915.09</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1938.88</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1962.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1986.52</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2010.34</v>
+      <c r="H21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
+        <v>3230.2869209883</v>
+      </c>
+      <c r="C22" t="n">
         <v>3261.3</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>3287.76</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>3314.21</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>3340.69</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>3367.15</v>
       </c>
-      <c r="G22" t="n">
-        <v>3393.6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3416.12</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3438.61</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3461.12</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3483.61</v>
+      <c r="H22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
+        <v>524.46224472381</v>
+      </c>
+      <c r="C23" t="n">
         <v>525.3</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>526.09</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>526.88</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>527.69</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>528.48</v>
       </c>
-      <c r="G23" t="n">
-        <v>529.27</v>
-      </c>
-      <c r="H23" t="n">
-        <v>530</v>
-      </c>
-      <c r="I23" t="n">
-        <v>530.71</v>
-      </c>
-      <c r="J23" t="n">
-        <v>531.44</v>
-      </c>
-      <c r="K23" t="n">
-        <v>532.15</v>
+      <c r="H23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B24" t="n">
+        <v>526.998276532915</v>
+      </c>
+      <c r="C24" t="n">
         <v>527.87</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>528.68</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>529.52</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>530.34</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>531.18</v>
       </c>
-      <c r="G24" t="n">
-        <v>532</v>
-      </c>
-      <c r="H24" t="n">
-        <v>532.76</v>
-      </c>
-      <c r="I24" t="n">
-        <v>533.49</v>
-      </c>
-      <c r="J24" t="n">
-        <v>534.25</v>
-      </c>
-      <c r="K24" t="n">
-        <v>534.98</v>
+      <c r="H24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
+        <v>523.83578800706</v>
+      </c>
+      <c r="C25" t="n">
         <v>524.16</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>524.46</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>524.76</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>525.09</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>525.38</v>
       </c>
-      <c r="G25" t="n">
-        <v>525.68</v>
-      </c>
-      <c r="H25" t="n">
-        <v>525.95</v>
-      </c>
-      <c r="I25" t="n">
-        <v>526.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>526.52</v>
-      </c>
-      <c r="K25" t="n">
-        <v>526.8</v>
+      <c r="H25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B26" t="n">
+        <v>306.516261427141</v>
+      </c>
+      <c r="C26" t="n">
         <v>307.09</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>307.66</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>308.2</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>308.74</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>309.31</v>
       </c>
-      <c r="G26" t="n">
-        <v>309.86</v>
-      </c>
-      <c r="H26" t="n">
-        <v>310.35</v>
-      </c>
-      <c r="I26" t="n">
-        <v>310.86</v>
-      </c>
-      <c r="J26" t="n">
-        <v>311.35</v>
-      </c>
-      <c r="K26" t="n">
-        <v>311.84</v>
+      <c r="H26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
+        <v>1576.20499418567</v>
+      </c>
+      <c r="C27" t="n">
         <v>1581.12</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>1584.62</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>1588.13</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1591.63</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1595.11</v>
       </c>
-      <c r="G27" t="n">
-        <v>1598.61</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1600.41</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1602.22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1604.02</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1605.81</v>
+      <c r="H27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
+        <v>289.640557979033</v>
+      </c>
+      <c r="C28" t="n">
         <v>290.56</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>291.57</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>292.6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>293.61</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>294.61</v>
       </c>
-      <c r="G28" t="n">
-        <v>295.62</v>
-      </c>
-      <c r="H28" t="n">
-        <v>296.73</v>
-      </c>
-      <c r="I28" t="n">
-        <v>297.82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>298.93</v>
-      </c>
-      <c r="K28" t="n">
-        <v>300.04</v>
+      <c r="H28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
+        <v>28.7687032192011</v>
+      </c>
+      <c r="C29" t="n">
         <v>35.29</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>40.61</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>45.91</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>51.23</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>56.55</v>
       </c>
-      <c r="G29" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="H29" t="n">
-        <v>66.06</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70.24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>74.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>78.58</v>
+      <c r="H29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n">
+        <v>1318.22443628172</v>
+      </c>
+      <c r="C30" t="n">
         <v>1345.6</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>1369.29</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1392.97</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1416.65</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>1440.37</v>
       </c>
-      <c r="G30" t="n">
-        <v>1464.05</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1483.36</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1502.67</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1521.98</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1541.32</v>
+      <c r="H30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B31" t="n">
+        <v>409.525959824766</v>
+      </c>
+      <c r="C31" t="n">
         <v>409.72</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>409.88</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>410.04</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>410.2</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>410.4</v>
       </c>
-      <c r="G31" t="n">
-        <v>410.56</v>
-      </c>
-      <c r="H31" t="n">
-        <v>410.72</v>
-      </c>
-      <c r="I31" t="n">
-        <v>410.86</v>
-      </c>
-      <c r="J31" t="n">
-        <v>411.02</v>
-      </c>
-      <c r="K31" t="n">
-        <v>411.18</v>
+      <c r="H31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B32" t="n">
+        <v>2482.83024213423</v>
+      </c>
+      <c r="C32" t="n">
         <v>2492.42</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>2498.64</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>2504.86</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>2511.08</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>2517.27</v>
       </c>
-      <c r="G32" t="n">
-        <v>2523.49</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2526.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2529.33</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2532.24</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2535.14</v>
+      <c r="H32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B33" t="n">
+        <v>1583.99233385277</v>
+      </c>
+      <c r="C33" t="n">
         <v>1590.84</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1595.78</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1600.75</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1605.69</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>1610.64</v>
       </c>
-      <c r="G33" t="n">
-        <v>1615.58</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1618.68</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1621.77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1624.87</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1627.97</v>
+      <c r="H33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
+        <v>578.954102979867</v>
+      </c>
+      <c r="C34" t="n">
         <v>580.01</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>581.05</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>582.08</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>583.08</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>584.11</v>
       </c>
-      <c r="G34" t="n">
-        <v>585.15</v>
-      </c>
-      <c r="H34" t="n">
-        <v>586.07</v>
-      </c>
-      <c r="I34" t="n">
-        <v>586.99</v>
-      </c>
-      <c r="J34" t="n">
-        <v>587.92</v>
-      </c>
-      <c r="K34" t="n">
-        <v>588.84</v>
+      <c r="H34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
+        <v>6573.27121694834</v>
+      </c>
+      <c r="C35" t="n">
         <v>6653.78</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>6718.69</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>6783.6</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>6848.54</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>6913.46</v>
       </c>
-      <c r="G35" t="n">
-        <v>6978.4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7027.86</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7077.29</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7126.75</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7176.21</v>
+      <c r="H35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B36" t="n">
+        <v>159.801456134609</v>
+      </c>
+      <c r="C36" t="n">
         <v>163.31</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>166.54</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>169.77</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>172.97</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>176.21</v>
       </c>
-      <c r="G36" t="n">
-        <v>179.44</v>
-      </c>
-      <c r="H36" t="n">
-        <v>182.32</v>
-      </c>
-      <c r="I36" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>190.98</v>
+      <c r="H36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B37" t="n">
+        <v>2459.30389765929</v>
+      </c>
+      <c r="C37" t="n">
         <v>2475.84</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>2488.85</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>2501.89</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>2514.9</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>2527.91</v>
       </c>
-      <c r="G37" t="n">
-        <v>2540.95</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2549.88</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2558.82</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2567.76</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2576.69</v>
+      <c r="H37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B38" t="n">
         <v>39259.11</v>
@@ -1804,17 +1570,8 @@
       <c r="G38" t="n">
         <v>40945.69</v>
       </c>
-      <c r="H38" t="n">
-        <v>41228.53</v>
-      </c>
-      <c r="I38" t="n">
-        <v>41511.39</v>
-      </c>
-      <c r="J38" t="n">
-        <v>41794.41</v>
-      </c>
-      <c r="K38" t="n">
-        <v>42077.23</v>
+      <c r="H38" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
